--- a/Universal_Driver_soft/UniversalDriver_v2.1/Map Registers.xlsx
+++ b/Universal_Driver_soft/UniversalDriver_v2.1/Map Registers.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197B7198-76A6-4F58-BF8D-C08519B8B7DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE240CC2-C254-4F25-A69E-BC9D1B9632CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
     <t>Скорость врашения  в процентах</t>
   </si>
   <si>
-    <t>1-100</t>
+    <t>1-1000</t>
   </si>
 </sst>
 </file>
@@ -925,23 +925,23 @@
   <dimension ref="A1:BI20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="39"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -949,7 +949,7 @@
       <c r="E2" s="40"/>
       <c r="F2" s="40"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -972,7 +972,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>5</v>
       </c>
@@ -995,7 +995,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
         <v>8</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
         <v>9</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
@@ -1096,7 +1096,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>11</v>
       </c>
@@ -1109,7 +1109,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
         <v>12</v>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
         <v>13</v>
       </c>
@@ -1137,7 +1137,7 @@
       <c r="F12" s="37"/>
       <c r="G12" s="27"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
         <v>14</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="29" t="s">
         <v>15</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="29" t="s">
         <v>16</v>
       </c>
@@ -1190,7 +1190,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
@@ -1203,7 +1203,7 @@
       <c r="F16" s="12"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:61" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:61" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>19</v>
       </c>
@@ -1270,7 +1270,7 @@
       <c r="BH17" s="2"/>
       <c r="BI17" s="2"/>
     </row>
-    <row r="18" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="30" t="s">
         <v>21</v>
       </c>
@@ -1283,7 +1283,7 @@
       <c r="F18" s="12"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="29" t="s">
         <v>22</v>
       </c>
@@ -1296,7 +1296,7 @@
       <c r="F19" s="12"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="29" t="s">
         <v>25</v>
       </c>
@@ -1328,7 +1328,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1341,7 +1341,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
